--- a/pandas/durations_from_Excel_ex.xlsx
+++ b/pandas/durations_from_Excel_ex.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12390" yWindow="0" windowWidth="38400" windowHeight="17250"/>
+    <workbookView xWindow="1050" yWindow="0" windowWidth="24270" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>duration</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>duration_to_text</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>47:55:01</t>
   </si>
 </sst>
 </file>
@@ -361,10 +367,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,6 +414,28 @@
         <v>1.0208333333333333</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1.9965393518518519</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.9965393518518519</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
